--- a/RMSE&running time comparison.xlsx
+++ b/RMSE&running time comparison.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles Lin\Documents\Git--VSCode--GitHub\Image Haze Removal using Dark Channel Prior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\卓文\Documents\Git--VSCode--GitHub\Image Haze Removal using Dark Channel Prior -- DIP Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{15955CC0-FFB6-4637-AF0B-D2FBADDC6567}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" xr2:uid="{09F13D0C-0554-4F65-8460-10110BFD0208}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,8 +125,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +199,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -244,6 +243,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -341,8 +341,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -403,7 +404,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-689E-4660-A6B6-A3ABD7CC5555}"/>
             </c:ext>
@@ -470,8 +471,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -532,7 +534,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-689E-4660-A6B6-A3ABD7CC5555}"/>
             </c:ext>
@@ -599,8 +601,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -661,7 +664,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-689E-4660-A6B6-A3ABD7CC5555}"/>
             </c:ext>
@@ -728,8 +731,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -790,7 +794,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-689E-4660-A6B6-A3ABD7CC5555}"/>
             </c:ext>
@@ -805,11 +809,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="398889088"/>
-        <c:axId val="398240432"/>
+        <c:axId val="131915976"/>
+        <c:axId val="131916760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="398889088"/>
+        <c:axId val="131915976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,6 +850,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -912,7 +917,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398240432"/>
+        <c:crossAx val="131916760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -920,7 +925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398240432"/>
+        <c:axId val="131916760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,6 +976,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1031,7 +1037,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398889088"/>
+        <c:crossAx val="131915976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1045,6 +1051,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1112,7 +1119,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1152,6 +1159,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1249,8 +1257,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1311,7 +1320,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-43F8-46E6-A2B4-FBAA0FC79A47}"/>
             </c:ext>
@@ -1378,8 +1387,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1440,7 +1450,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-43F8-46E6-A2B4-FBAA0FC79A47}"/>
             </c:ext>
@@ -1507,8 +1517,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1569,7 +1580,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-43F8-46E6-A2B4-FBAA0FC79A47}"/>
             </c:ext>
@@ -1636,8 +1647,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1698,7 +1710,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-43F8-46E6-A2B4-FBAA0FC79A47}"/>
             </c:ext>
@@ -1713,11 +1725,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="348629280"/>
-        <c:axId val="336813152"/>
+        <c:axId val="131914800"/>
+        <c:axId val="131917544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="348629280"/>
+        <c:axId val="131914800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,6 +1762,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1816,7 +1829,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336813152"/>
+        <c:crossAx val="131917544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1824,7 +1837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336813152"/>
+        <c:axId val="131917544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,6 +1888,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1935,7 +1949,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348629280"/>
+        <c:crossAx val="131914800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1949,6 +1963,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2016,7 +2031,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2060,6 +2075,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2163,8 +2179,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2226,7 +2243,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A2BA-4E9B-A2DC-0CF18E472A5D}"/>
             </c:ext>
@@ -2300,8 +2317,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2342,7 +2360,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-A2BA-4E9B-A2DC-0CF18E472A5D}"/>
             </c:ext>
@@ -2359,11 +2377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488673136"/>
-        <c:axId val="235572528"/>
+        <c:axId val="375193208"/>
+        <c:axId val="375185760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="488673136"/>
+        <c:axId val="375193208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2396,6 +2414,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2462,7 +2481,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235572528"/>
+        <c:crossAx val="375185760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2470,7 +2489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235572528"/>
+        <c:axId val="375185760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2521,7 +2540,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488673136"/>
+        <c:crossAx val="375193208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2535,6 +2554,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2602,7 +2622,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2642,6 +2662,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2745,8 +2766,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2787,7 +2809,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-18AB-4113-9680-DC1820E051F7}"/>
             </c:ext>
@@ -2861,8 +2883,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2924,7 +2947,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-18AB-4113-9680-DC1820E051F7}"/>
             </c:ext>
@@ -2941,11 +2964,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="340457920"/>
-        <c:axId val="339006736"/>
+        <c:axId val="375189288"/>
+        <c:axId val="375190856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="340457920"/>
+        <c:axId val="375189288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,6 +3001,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3044,7 +3068,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339006736"/>
+        <c:crossAx val="375190856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3052,7 +3076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339006736"/>
+        <c:axId val="375190856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,7 +3127,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340457920"/>
+        <c:crossAx val="375189288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3117,6 +3141,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3184,7 +3209,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3338,7 +3363,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1DA2-4913-8E03-50B409A1AA9E}"/>
             </c:ext>
@@ -3423,7 +3448,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1DA2-4913-8E03-50B409A1AA9E}"/>
             </c:ext>
@@ -3508,7 +3533,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1DA2-4913-8E03-50B409A1AA9E}"/>
             </c:ext>
@@ -3593,7 +3618,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-1DA2-4913-8E03-50B409A1AA9E}"/>
             </c:ext>
@@ -3609,11 +3634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="338073216"/>
-        <c:axId val="337105568"/>
+        <c:axId val="375186152"/>
+        <c:axId val="375187328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338073216"/>
+        <c:axId val="375186152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3716,7 +3741,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337105568"/>
+        <c:crossAx val="375187328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3724,7 +3749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337105568"/>
+        <c:axId val="375187328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3775,7 +3800,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338073216"/>
+        <c:crossAx val="375186152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3856,7 +3881,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4004,7 +4029,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4065,7 +4090,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-991A-4D92-ADC3-F84B479017FC}"/>
             </c:ext>
@@ -4133,7 +4158,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4194,7 +4219,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-991A-4D92-ADC3-F84B479017FC}"/>
             </c:ext>
@@ -4262,7 +4287,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4323,7 +4348,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-991A-4D92-ADC3-F84B479017FC}"/>
             </c:ext>
@@ -4391,7 +4416,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4452,7 +4477,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-991A-4D92-ADC3-F84B479017FC}"/>
             </c:ext>
@@ -4468,11 +4493,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="521018848"/>
-        <c:axId val="497010880"/>
+        <c:axId val="375192032"/>
+        <c:axId val="375188112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="521018848"/>
+        <c:axId val="375192032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4571,7 +4596,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497010880"/>
+        <c:crossAx val="375188112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4579,7 +4604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="497010880"/>
+        <c:axId val="375188112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4690,7 +4715,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521018848"/>
+        <c:crossAx val="375192032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4771,7 +4796,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4913,7 +4938,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4989,7 +5014,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B9E3-44AD-83C6-725ED2A41B7B}"/>
             </c:ext>
@@ -5057,7 +5082,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5133,7 +5158,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B9E3-44AD-83C6-725ED2A41B7B}"/>
             </c:ext>
@@ -5201,7 +5226,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5277,7 +5302,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B9E3-44AD-83C6-725ED2A41B7B}"/>
             </c:ext>
@@ -5345,7 +5370,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5421,7 +5446,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B9E3-44AD-83C6-725ED2A41B7B}"/>
             </c:ext>
@@ -5437,11 +5462,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="397079088"/>
-        <c:axId val="519687856"/>
+        <c:axId val="375191248"/>
+        <c:axId val="375188504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="397079088"/>
+        <c:axId val="375191248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5544,7 +5569,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519687856"/>
+        <c:crossAx val="375188504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5552,7 +5577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519687856"/>
+        <c:axId val="375188504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5603,7 +5628,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397079088"/>
+        <c:crossAx val="375191248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9551,7 +9576,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB1AFE6-FBB8-41F2-B492-88C06A2124A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AB1AFE6-FBB8-41F2-B492-88C06A2124A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9587,7 +9612,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84AFF77-1482-478E-A610-57FDE1D1CC24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B84AFF77-1482-478E-A610-57FDE1D1CC24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9623,7 +9648,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FF9DA2-9C83-4FF5-A0CC-DFC69B3D224A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1FF9DA2-9C83-4FF5-A0CC-DFC69B3D224A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9659,7 +9684,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF9883A-CBB3-4C53-913E-3337C76F5940}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEF9883A-CBB3-4C53-913E-3337C76F5940}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9695,7 +9720,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD239CC-E450-4BC8-B26E-BDBBBD1053B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECD239CC-E450-4BC8-B26E-BDBBBD1053B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9731,7 +9756,7 @@
         <xdr:cNvPr id="10" name="图表 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECBB609-E60B-44A0-93D9-8B74E3859631}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0ECBB609-E60B-44A0-93D9-8B74E3859631}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9767,7 +9792,7 @@
         <xdr:cNvPr id="11" name="图表 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28025E1E-8A14-40E2-8FDD-6B070181F183}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28025E1E-8A14-40E2-8FDD-6B070181F183}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10084,24 +10109,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3327B4BD-3D65-449C-BC2F-05AF3CD7158F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10118,7 +10143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10135,7 +10160,7 @@
         <v>0.20535300000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10152,7 +10177,7 @@
         <v>2.0150999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10169,7 +10194,7 @@
         <v>1.039E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10186,7 +10211,7 @@
         <v>0.33744600000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -10207,7 +10232,7 @@
         <v>0.56398900000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -10224,12 +10249,12 @@
         <v>0.32169999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -10246,7 +10271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -10263,7 +10288,7 @@
         <v>2.3608579999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -10280,7 +10305,7 @@
         <v>2.0743000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -10297,7 +10322,7 @@
         <v>1.4970000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -10314,7 +10339,7 @@
         <v>0.32209900000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -10335,7 +10360,7 @@
         <v>2.7051970000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -10352,12 +10377,12 @@
         <v>0.32269999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -10374,7 +10399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -10382,7 +10407,7 @@
         <v>0.21327199999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -10390,7 +10415,7 @@
         <v>2.3071000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -10398,7 +10423,7 @@
         <v>1.6850000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -10406,7 +10431,7 @@
         <v>0.31567800000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -10415,7 +10440,7 @@
         <v>0.55370600000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -10432,12 +10457,12 @@
         <v>0.31409999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -10454,7 +10479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -10462,7 +10487,7 @@
         <v>0.215144</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -10470,7 +10495,7 @@
         <v>2.2113000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -10478,7 +10503,7 @@
         <v>1.201E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -10486,7 +10511,7 @@
         <v>0.30505900000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -10495,7 +10520,7 @@
         <v>0.54351700000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -10512,12 +10537,12 @@
         <v>0.31409999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -10534,7 +10559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -10542,7 +10567,7 @@
         <v>0.21476500000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -10550,7 +10575,7 @@
         <v>2.1874999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -10558,7 +10583,7 @@
         <v>1.4250000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -10566,7 +10591,7 @@
         <v>0.30859399999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -10575,7 +10600,7 @@
         <v>0.54665900000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -10592,12 +10617,12 @@
         <v>0.31369999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -10620,7 +10645,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -10643,7 +10668,7 @@
         <v>0.21587100000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -10666,7 +10691,7 @@
         <v>2.0591000000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -10689,7 +10714,7 @@
         <v>1.8090000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -10712,7 +10737,7 @@
         <v>0.29260000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -10741,7 +10766,7 @@
         <v>0.53087100000000009</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -10764,12 +10789,12 @@
         <v>0.31340000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -10786,7 +10811,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -10803,12 +10828,12 @@
         <v>0.31740000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -10825,7 +10850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -10842,7 +10867,7 @@
         <v>0.221692</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -10859,7 +10884,7 @@
         <v>2.0225E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -10876,7 +10901,7 @@
         <v>1.2199999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -10893,7 +10918,7 @@
         <v>0.31492599999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -10914,7 +10939,7 @@
         <v>0.55806299999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -10931,7 +10956,7 @@
         <v>0.31419999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
@@ -10948,7 +10973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -10965,7 +10990,7 @@
         <v>0.210337</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -10982,7 +11007,7 @@
         <v>0.75762700000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -10999,7 +11024,7 @@
         <v>1.9959999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -11016,7 +11041,7 @@
         <v>0.31295600000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>5</v>
       </c>
